--- a/studio/apps/console/static/vote_sample.xlsx
+++ b/studio/apps/console/static/vote_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NathanY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\uni_studio\studio\apps\console\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1E5399-F142-48BC-A0F2-B12679885A0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9EDDE1-4BD0-433C-A245-45BC278FF644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>林漓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +44,14 @@
   </si>
   <si>
     <t>马赛克的计方电计节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主标题（名字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（日期？）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,34 +381,34 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44229</v>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>44259</v>
